--- a/data/trans_orig/SATIS_SUEÑO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/SATIS_SUEÑO-Estudios-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Satisfacción global del sueño</t>
+          <t>Satisfacción global del sueño (tasa de respuesta: 98,95%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/SATIS_SUEÑO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/SATIS_SUEÑO-Estudios-trans_orig.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,84</t>
+          <t>8,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,14</t>
+          <t>7,12</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7,4</t>
+          <t>7,46</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,51; 8,13</t>
+          <t>7,65; 8,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,86; 2,63</t>
+          <t>1,84; 2,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,36; 8,18</t>
+          <t>7,37; 8,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,88; 7,38</t>
+          <t>6,8; 7,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,73; 3,31</t>
+          <t>2,74; 3,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,17 +759,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,41; 7,11</t>
+          <t>6,4; 7,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,18; 7,6</t>
+          <t>7,2; 7,67</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,5; 2,99</t>
+          <t>2,5; 2,97</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,96; 7,54</t>
+          <t>6,97; 7,54</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,6</t>
+          <t>7,65</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,13</t>
+          <t>7,3</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>7,36</t>
+          <t>7,48</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,47; 7,74</t>
+          <t>7,51; 7,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,2; 7,49</t>
+          <t>7,19; 7,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,99; 7,25</t>
+          <t>7,14; 7,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,67; 1,28</t>
+          <t>0,64; 1,28</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,26; 7,46</t>
+          <t>7,37; 7,58</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,03; 7,24</t>
+          <t>7,04; 7,24</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,69</t>
+          <t>7,7</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,33</t>
+          <t>7,39</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>7,49</t>
+          <t>7,53</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1004,12 +1004,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,47; 7,89</t>
+          <t>7,49; 7,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,69; 1,05</t>
+          <t>0,69; 1,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,17 +1019,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,13; 7,42</t>
+          <t>7,12; 7,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,15; 7,52</t>
+          <t>7,18; 7,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,93; 1,27</t>
+          <t>0,94; 1,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,17 +1039,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,17; 7,46</t>
+          <t>7,18; 7,48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,34; 7,61</t>
+          <t>7,38; 7,68</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 1,11</t>
+          <t>0,85; 1,12</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,2; 7,4</t>
+          <t>7,19; 7,4</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,65</t>
+          <t>7,7</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,18</t>
+          <t>7,31</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7,4</t>
+          <t>7,49</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,55; 7,75</t>
+          <t>7,59; 7,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,65; 1,11</t>
+          <t>0,64; 1,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,17 +1159,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,29; 7,5</t>
+          <t>7,28; 7,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,09; 7,29</t>
+          <t>7,19; 7,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,02; 1,6</t>
+          <t>1,06; 1,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1184,12 +1184,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,33; 7,47</t>
+          <t>7,42; 7,58</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,93; 1,33</t>
+          <t>0,95; 1,32</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,13; 7,29</t>
+          <t>7,14; 7,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/SATIS_SUEÑO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/SATIS_SUEÑO-Estudios-trans_orig.xlsx
@@ -568,62 +568,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>2,17</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7,81</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>8,2</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>8,0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,23</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>8,2</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>7,81</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>3,04</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>6,79</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>7,65</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>7,12</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>3,02</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>7,65</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>6,79</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>2,72</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>7,26</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>7,89</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>7,46</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>2,73</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>7,89</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>7,26</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>1,78; 2,55</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>7,37; 8,19</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>7,98; 8,38</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>7,65; 8,34</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>1,84; 2,65</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>7,98; 8,38</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>7,37; 8,19</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>2,76; 3,36</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>6,4; 7,13</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>7,46; 7,84</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>6,8; 7,4</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>2,74; 3,32</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>7,46; 7,84</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>6,4; 7,13</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>2,49; 2,95</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>6,97; 7,54</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>7,75; 8,04</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>7,2; 7,67</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>2,5; 2,97</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>7,75; 8,04</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>6,97; 7,54</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,91</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>7,34</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>8,36</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>7,65</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,76</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>8,36</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>7,34</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>1,3</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>6,94</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>7,92</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>7,3</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>1,03</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>7,92</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>6,94</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>1,1</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>7,14</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>8,14</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>7,48</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>0,9</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>8,14</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>7,14</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0,79; 1,04</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>7,19; 7,47</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>8,25; 8,47</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>7,51; 7,8</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,43; 0,97</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>8,25; 8,47</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>7,19; 7,47</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>1,18; 1,45</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>6,78; 7,09</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>7,78; 8,04</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>7,14; 7,44</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0,64; 1,28</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>7,78; 8,04</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>6,78; 7,09</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>1,0; 1,19</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>7,04; 7,24</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>8,05; 8,21</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>7,37; 7,58</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>0,63; 1,08</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>8,05; 8,21</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>7,04; 7,24</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,88</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>7,28</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>8,31</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>7,7</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,86</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>8,31</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>7,28</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>1,11</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>7,32</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>8,13</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>7,39</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>1,09</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>8,13</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>7,32</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>7,3</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>8,21</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>7,53</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>0,97</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>8,21</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>7,3</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0,71; 1,09</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>7,12; 7,42</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>8,11; 8,47</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>7,49; 7,9</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,69; 1,07</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>8,11; 8,47</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>7,12; 7,42</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>0,97; 1,29</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>7,18; 7,48</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>7,96; 8,29</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>7,18; 7,6</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0,94; 1,27</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>7,96; 8,29</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>7,18; 7,48</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>0,87; 1,13</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>7,19; 7,4</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>8,1; 8,34</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>7,38; 7,68</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>0,85; 1,12</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>8,1; 8,34</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>7,19; 7,4</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>1,06</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7,39</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>8,32</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>7,7</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,94</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>8,32</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>7,39</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>1,6</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>7,06</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>7,93</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>7,31</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>1,4</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>7,93</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>7,06</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>1,34</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>7,22</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>8,12</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>7,49</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>1,18</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>8,12</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>7,22</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>0,96; 1,18</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>7,28; 7,5</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>8,24; 8,42</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>7,59; 7,81</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,64; 1,1</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>8,24; 8,42</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>7,28; 7,5</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>1,51; 1,72</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>6,95; 7,16</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>7,84; 8,03</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>7,19; 7,42</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>1,06; 1,61</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>7,84; 8,03</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>6,95; 7,16</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>1,26; 1,42</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>7,14; 7,29</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>8,05; 8,18</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>7,42; 7,58</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>0,95; 1,32</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>8,05; 8,18</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>7,14; 7,29</t>
         </is>
       </c>
     </row>
